--- a/事务流水/20221009郑名扬模型验证/得分1.xlsx
+++ b/事务流水/20221009郑名扬模型验证/得分1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\资助中心—助管\zizhu\hustzz\事务流水\20221009郑名扬模型验证\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420C05D-CC3A-4C9B-A146-8DDA44E93718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>NJ</t>
   </si>
@@ -109,9 +115,6 @@
     <t>400</t>
   </si>
   <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>403</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>408</t>
-  </si>
-  <si>
-    <t>409</t>
   </si>
   <si>
     <t>411</t>
@@ -181,12 +181,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,8 +194,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,22 +241,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +309,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +341,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +393,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,29 +586,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,1051 +635,1035 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4">
-        <v>15.41</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="D5">
-        <v>32.4</v>
+        <v>35.6</v>
       </c>
       <c r="E5">
-        <v>37.23</v>
+        <v>42.63</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>23.8</v>
+        <v>26.2</v>
       </c>
       <c r="D6">
-        <v>39.46</v>
+        <v>46.26</v>
       </c>
       <c r="E6">
-        <v>23.38</v>
+        <v>29.98</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="I6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>13.6</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D7">
-        <v>21.33</v>
+        <v>25.33</v>
       </c>
       <c r="E7">
-        <v>23.58</v>
+        <v>28.18</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>253.99</v>
+        <v>283.99</v>
       </c>
       <c r="D8">
-        <v>293.5</v>
+        <v>318.10000000000002</v>
       </c>
       <c r="E8">
-        <v>283.91</v>
+        <v>298.91000000000003</v>
       </c>
       <c r="G8">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="H8">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="I8">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>93.48999999999999</v>
+        <v>95.59</v>
       </c>
       <c r="D9">
-        <v>89.88</v>
+        <v>93.18</v>
       </c>
       <c r="E9">
-        <v>95.5</v>
+        <v>97.9</v>
       </c>
       <c r="G9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H9">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>69.96000000000001</v>
+        <v>82.960000000000008</v>
       </c>
       <c r="D10">
-        <v>78.91</v>
+        <v>93.01</v>
       </c>
       <c r="E10">
-        <v>92.56</v>
+        <v>101.76</v>
       </c>
       <c r="G10">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H10">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="I10">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>15.83</v>
+        <v>20.53</v>
       </c>
       <c r="D11">
-        <v>13.15</v>
+        <v>14.75</v>
       </c>
       <c r="E11">
-        <v>11.78</v>
+        <v>15.58</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12">
-        <v>40.58</v>
+        <v>47.98</v>
       </c>
       <c r="D12">
-        <v>48.16</v>
+        <v>54.16</v>
       </c>
       <c r="E12">
-        <v>59.56</v>
+        <v>69.760000000000005</v>
       </c>
       <c r="G12">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H12">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I12">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>7.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D13">
-        <v>6.18</v>
+        <v>13.08</v>
       </c>
       <c r="E13">
-        <v>15.9</v>
+        <v>23.3</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>12.2</v>
+        <v>31.2</v>
       </c>
       <c r="D14">
-        <v>19.55</v>
+        <v>62.15</v>
       </c>
       <c r="E14">
-        <v>21.3</v>
+        <v>66.8</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>157.7</v>
+        <v>171.5</v>
       </c>
       <c r="D15">
-        <v>173.05</v>
+        <v>190.15</v>
       </c>
       <c r="E15">
-        <v>164.34</v>
+        <v>182.64</v>
       </c>
       <c r="G15">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="I15">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>21.1</v>
       </c>
       <c r="D16">
-        <v>14.38</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="E16">
-        <v>17.48</v>
+        <v>20.98</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E17">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="I17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>25.52</v>
+        <v>33.42</v>
       </c>
       <c r="D18">
-        <v>47.13</v>
+        <v>52.03</v>
       </c>
       <c r="E18">
-        <v>41.1</v>
+        <v>54.4</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I18">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19">
-        <v>89.58</v>
+        <v>97.08</v>
       </c>
       <c r="D19">
-        <v>97.87</v>
+        <v>104.77</v>
       </c>
       <c r="E19">
-        <v>98.63</v>
+        <v>104.33</v>
       </c>
       <c r="G19">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H19">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I19">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20">
-        <v>95.47</v>
+        <v>99.47</v>
       </c>
       <c r="D20">
-        <v>114.54</v>
+        <v>119.24</v>
       </c>
       <c r="E20">
-        <v>130.1</v>
+        <v>136.4</v>
       </c>
       <c r="G20">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H20">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="I20">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21">
-        <v>102.84</v>
+        <v>140.04</v>
       </c>
       <c r="D21">
-        <v>121.64</v>
+        <v>149.94</v>
       </c>
       <c r="E21">
-        <v>139.79</v>
+        <v>156.59</v>
       </c>
       <c r="G21">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="H21">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="I21">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22">
-        <v>113.19</v>
+        <v>130.99</v>
       </c>
       <c r="D22">
-        <v>124.26</v>
+        <v>146.16</v>
       </c>
       <c r="E22">
-        <v>113.1</v>
+        <v>127.2</v>
       </c>
       <c r="G22">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="H22">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="I22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>136.13</v>
+        <v>172.83</v>
       </c>
       <c r="D23">
-        <v>125.3</v>
+        <v>154.6</v>
       </c>
       <c r="E23">
-        <v>122.39</v>
+        <v>146.19</v>
       </c>
       <c r="G23">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="H23">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="I23">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>18.06</v>
+        <v>28.26</v>
       </c>
       <c r="D24">
-        <v>19.78</v>
+        <v>34.08</v>
       </c>
       <c r="E24">
-        <v>30.3</v>
+        <v>42.7</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I24">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="D25">
-        <v>27.68</v>
+        <v>29.88</v>
       </c>
       <c r="E25">
-        <v>24.28</v>
+        <v>29.38</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26">
-        <v>29.25</v>
+        <v>42.45</v>
       </c>
       <c r="D26">
-        <v>53.7</v>
+        <v>59.3</v>
       </c>
       <c r="E26">
-        <v>67.55</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="G26">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H26">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C27">
-        <v>40.5</v>
+        <v>53.1</v>
       </c>
       <c r="D27">
-        <v>48.2</v>
+        <v>63.8</v>
       </c>
       <c r="E27">
-        <v>47.8</v>
+        <v>63.9</v>
       </c>
       <c r="G27">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H27">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I27">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C28">
+        <v>19.399999999999999</v>
+      </c>
       <c r="D28">
-        <v>18.55</v>
+        <v>22.75</v>
       </c>
       <c r="E28">
-        <v>21.15</v>
+        <v>23.95</v>
+      </c>
+      <c r="G28">
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I28">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29">
-        <v>13.3</v>
+        <v>11.2</v>
+      </c>
+      <c r="D29">
+        <v>12.3</v>
+      </c>
+      <c r="E29">
+        <v>17.93</v>
       </c>
       <c r="G29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>16.25</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>19.38</v>
       </c>
       <c r="E30">
-        <v>16.13</v>
+        <v>20.05</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31">
-        <v>9.050000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="D31">
-        <v>14.78</v>
+        <v>4.45</v>
       </c>
       <c r="E31">
-        <v>16.25</v>
+        <v>4.2</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32">
-        <v>5.4</v>
+        <v>28.68</v>
       </c>
       <c r="D32">
-        <v>4.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33">
-        <v>22.08</v>
+        <v>12.98</v>
       </c>
       <c r="D33">
-        <v>28.25</v>
+        <v>22.45</v>
       </c>
       <c r="E33">
-        <v>29.8</v>
+        <v>25.5</v>
       </c>
       <c r="G33">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I33">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34">
-        <v>10.68</v>
+        <v>16.88</v>
       </c>
       <c r="D34">
-        <v>15.15</v>
+        <v>13.4</v>
       </c>
       <c r="E34">
+        <v>12.9</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34">
         <v>22</v>
       </c>
-      <c r="G34">
-        <v>17</v>
-      </c>
-      <c r="H34">
-        <v>21</v>
-      </c>
       <c r="I34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D35">
+        <v>16.48</v>
+      </c>
+      <c r="E35">
+        <v>18.53</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36">
-        <v>12.48</v>
+        <v>6.2</v>
       </c>
       <c r="D36">
-        <v>7.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E36">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G36">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H36">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37">
-        <v>13.8</v>
+        <v>45.28</v>
       </c>
       <c r="D37">
-        <v>15.08</v>
+        <v>45.6</v>
       </c>
       <c r="E37">
-        <v>16.83</v>
+        <v>53.58</v>
       </c>
       <c r="G37">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D38">
-        <v>2.7</v>
+        <v>13.46</v>
       </c>
       <c r="E38">
-        <v>6.3</v>
+        <v>26.65</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39">
-        <v>33.58</v>
+        <v>25.48</v>
       </c>
       <c r="D39">
-        <v>29.7</v>
+        <v>34.6</v>
       </c>
       <c r="E39">
-        <v>41.58</v>
+        <v>58.14</v>
       </c>
       <c r="G39">
         <v>41</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I39">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C40">
-        <v>3.1</v>
+        <v>15.88</v>
       </c>
       <c r="D40">
-        <v>10.16</v>
+        <v>24.5</v>
       </c>
       <c r="E40">
-        <v>20.15</v>
+        <v>26.94</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I40">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C41">
-        <v>20.68</v>
+        <v>3.8</v>
       </c>
       <c r="D41">
-        <v>31.1</v>
+        <v>3.5</v>
       </c>
       <c r="E41">
-        <v>54.24</v>
+        <v>3.8</v>
       </c>
       <c r="G41">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42">
-        <v>14.48</v>
+        <v>14.6</v>
       </c>
       <c r="D42">
-        <v>23.3</v>
+        <v>15.95</v>
       </c>
       <c r="E42">
-        <v>23.04</v>
+        <v>18.98</v>
       </c>
       <c r="G42">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="D43">
-        <v>0.9</v>
+        <v>7.1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44">
-        <v>11.4</v>
+        <v>2.9</v>
       </c>
       <c r="D44">
-        <v>13.35</v>
+        <v>2.7</v>
       </c>
       <c r="E44">
-        <v>14.38</v>
+        <v>2.78</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C45">
-        <v>6.199999999999999</v>
+        <v>75.28</v>
       </c>
       <c r="D45">
-        <v>6.5</v>
+        <v>80.180000000000007</v>
       </c>
       <c r="E45">
-        <v>7.5</v>
+        <v>98.9</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="H45">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="I45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C46">
-        <v>2.1</v>
+        <v>79.8</v>
       </c>
       <c r="D46">
-        <v>2.1</v>
+        <v>89.01</v>
       </c>
       <c r="E46">
-        <v>2.78</v>
+        <v>109.2</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="I46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C47">
-        <v>67.08</v>
-      </c>
       <c r="D47">
-        <v>70.58</v>
+        <v>0.2</v>
       </c>
       <c r="E47">
-        <v>92.3</v>
-      </c>
-      <c r="G47">
-        <v>99</v>
+        <v>1.2</v>
       </c>
       <c r="H47">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C48">
-        <v>74.7</v>
-      </c>
-      <c r="D48">
-        <v>80.31</v>
-      </c>
       <c r="E48">
-        <v>103.5</v>
-      </c>
-      <c r="G48">
-        <v>108</v>
-      </c>
-      <c r="H48">
-        <v>115</v>
+        <v>0.6</v>
       </c>
       <c r="I48">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C49">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="D49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>14.6</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50">
-        <v>0.6</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>4.8</v>
-      </c>
-      <c r="D51">
-        <v>2.8</v>
-      </c>
-      <c r="E51">
-        <v>5.2</v>
-      </c>
-      <c r="G51">
-        <v>7</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1631,6 +1671,8 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>